--- a/freebtc/BTC-dividend.xlsx
+++ b/freebtc/BTC-dividend.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19815" windowHeight="7860" activeTab="0"/>
+    <workbookView windowWidth="19815" windowHeight="7860"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="29" count="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="30">
   <si>
     <t>Week</t>
   </si>
@@ -101,102 +102,432 @@
   </si>
   <si>
     <t>雨帆</t>
+  </si>
+  <si>
+    <t>周大大</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
-    <numFmt numFmtId="0" formatCode="General"/>
-    <numFmt numFmtId="164" formatCode="0_ "/>
-    <numFmt numFmtId="14" formatCode="yyyy/m/d"/>
-    <numFmt numFmtId="9" formatCode="0%"/>
-    <numFmt numFmtId="165" formatCode="0.00000000_ "/>
+  <numFmts count="6">
+    <numFmt numFmtId="176" formatCode="0.00000000_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="0_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="12">
-    <font>
-      <name val="宋体"/>
-      <sz val="11"/>
-    </font>
-    <font>
+  <fonts count="30">
+    <font>
+      <sz val="11"/>
       <name val="宋体"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
-    </font>
-    <font>
-      <name val="宋体"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
-      <charset val="134"/>
       <sz val="10"/>
       <color rgb="FF000000"/>
-    </font>
-    <font>
       <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
-      <charset val="134"/>
       <sz val="10"/>
       <color rgb="FF000000"/>
-    </font>
-    <font>
       <name val="宋体"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="10"/>
       <color rgb="FF808080"/>
-    </font>
-    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF808080"/>
       <name val="Arial"/>
       <charset val="134"/>
+    </font>
+    <font>
       <sz val="10"/>
-      <color rgb="FF808080"/>
-    </font>
-    <font>
+      <color rgb="FF7F7F7F"/>
       <name val="Arial"/>
       <charset val="134"/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <charset val="134"/>
+    </font>
+    <font>
       <sz val="10"/>
       <color rgb="FF7F7F7F"/>
-    </font>
-    <font>
       <name val="宋体"/>
       <charset val="134"/>
-      <sz val="10"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-    </font>
-    <font>
-      <name val="宋体"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <charset val="134"/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <b/>
-      <sz val="11"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -204,81 +535,364 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -534,513 +1148,524 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="A1:C15"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" defaultColWidth="9"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" customWidth="1" width="9.625" style="1"/>
-    <col min="2" max="2" customWidth="1" width="12.046875" style="1"/>
-    <col min="3" max="3" customWidth="1" width="9.875" style="2"/>
-    <col min="4" max="4" customWidth="1" width="13.875" style="1"/>
-    <col min="9" max="16384" customWidth="1" width="9.0" style="1"/>
+    <col min="1" max="1" width="9.625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="12.05" style="2" customWidth="1"/>
+    <col min="3" max="3" width="9.875" style="7" customWidth="1"/>
+    <col min="4" max="4" width="13.875" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="8:8" ht="27.0" customHeight="1">
-      <c r="A1" s="3" t="s">
+    <row r="1" ht="27" customHeight="1" spans="1:3">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="8:8" ht="17.0" customHeight="1">
-      <c r="A2" s="6" t="s">
+    <row r="2" ht="17" customHeight="1" spans="1:3">
+      <c r="A2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="7">
-        <v>43857.0</v>
-      </c>
-      <c r="C2" s="8">
-        <v>6700.0</v>
-      </c>
-    </row>
-    <row r="3" spans="8:8" ht="17.0" customHeight="1">
-      <c r="A3" s="6" t="s">
+      <c r="B2" s="10">
+        <v>43857</v>
+      </c>
+      <c r="C2" s="11">
+        <v>6700</v>
+      </c>
+    </row>
+    <row r="3" ht="17" customHeight="1" spans="1:3">
+      <c r="A3" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="7">
-        <v>43858.0</v>
-      </c>
-      <c r="C3" s="8">
-        <v>100.0</v>
-      </c>
-    </row>
-    <row r="4" spans="8:8" ht="17.0" customHeight="1">
-      <c r="A4" s="6" t="s">
+      <c r="B3" s="10">
+        <v>43858</v>
+      </c>
+      <c r="C3" s="11">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" ht="17" customHeight="1" spans="1:3">
+      <c r="A4" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="7">
-        <v>43859.0</v>
-      </c>
-      <c r="C4" s="8">
-        <v>6800.0</v>
-      </c>
-    </row>
-    <row r="5" spans="8:8" ht="17.0" customHeight="1">
-      <c r="A5" s="6" t="s">
+      <c r="B4" s="10">
+        <v>43859</v>
+      </c>
+      <c r="C4" s="11">
+        <v>6800</v>
+      </c>
+    </row>
+    <row r="5" ht="17" customHeight="1" spans="1:3">
+      <c r="A5" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="7">
-        <v>43860.0</v>
-      </c>
-      <c r="C5" s="8">
-        <v>6900.0</v>
-      </c>
-    </row>
-    <row r="6" spans="8:8" ht="17.0" customHeight="1">
-      <c r="A6" s="6" t="s">
+      <c r="B5" s="10">
+        <v>43860</v>
+      </c>
+      <c r="C5" s="11">
+        <v>6900</v>
+      </c>
+    </row>
+    <row r="6" ht="17" customHeight="1" spans="1:3">
+      <c r="A6" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="7">
-        <v>43861.0</v>
-      </c>
-      <c r="C6" s="8">
-        <v>7000.0</v>
-      </c>
-    </row>
-    <row r="7" spans="8:8" ht="17.0" customHeight="1">
-      <c r="A7" s="6" t="s">
+      <c r="B6" s="10">
+        <v>43861</v>
+      </c>
+      <c r="C6" s="11">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="7" ht="17" customHeight="1" spans="1:3">
+      <c r="A7" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="7">
-        <v>43862.0</v>
-      </c>
-      <c r="C7" s="9">
-        <v>7100.0</v>
-      </c>
-    </row>
-    <row r="8" spans="8:8" ht="17.0" customHeight="1">
-      <c r="A8" s="6" t="s">
+      <c r="B7" s="10">
+        <v>43862</v>
+      </c>
+      <c r="C7" s="12">
+        <v>7100</v>
+      </c>
+    </row>
+    <row r="8" ht="17" customHeight="1" spans="1:3">
+      <c r="A8" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="7">
-        <v>43863.0</v>
-      </c>
-      <c r="C8" s="9">
-        <v>7200.0</v>
-      </c>
-    </row>
-    <row r="9" spans="8:8" ht="17.0" customHeight="1">
-      <c r="A9" s="6" t="s">
+      <c r="B8" s="10">
+        <v>43863</v>
+      </c>
+      <c r="C8" s="12">
+        <v>7200</v>
+      </c>
+    </row>
+    <row r="9" ht="17" customHeight="1" spans="1:3">
+      <c r="A9" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="9">
+      <c r="C9" s="12">
         <f>SUM(C2:C8)</f>
-        <v>41800.0</v>
-      </c>
-    </row>
-    <row r="10" spans="8:8" ht="21.0" customHeight="1">
-      <c r="B10" s="10" t="s">
+        <v>41800</v>
+      </c>
+    </row>
+    <row r="10" ht="21" customHeight="1" spans="2:3">
+      <c r="B10" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="8"/>
-    </row>
-    <row r="11" spans="8:8" ht="36.0" customHeight="1">
-      <c r="A11" s="11" t="s">
+      <c r="C10" s="11"/>
+    </row>
+    <row r="11" ht="36" customHeight="1" spans="1:3">
+      <c r="A11" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="12" t="str">
+      <c r="B11" s="4" t="str">
         <f>"目前由9人瓜分人均"&amp;ROUND(C11/9,0)</f>
         <v>目前由9人瓜分人均464</v>
       </c>
-      <c r="C11" s="13">
+      <c r="C11" s="8">
         <f>C9*0.1</f>
-        <v>4180.0</v>
-      </c>
-    </row>
-    <row r="12" spans="8:8" ht="31.0" customHeight="1">
-      <c r="A12" s="14" t="s">
+        <v>4180</v>
+      </c>
+    </row>
+    <row r="12" ht="31" customHeight="1" spans="1:4">
+      <c r="A12" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="12" t="str">
-        <f>"目前由1人瓜分人均"&amp;ROUND(C12/1,0)</f>
-        <v>目前由1人瓜分人均4180</v>
-      </c>
-      <c r="C12" s="13">
+      <c r="B12" s="4" t="str">
+        <f>"目前由2人瓜分人均"&amp;ROUND(C12/2,0)</f>
+        <v>目前由2人瓜分人均2090</v>
+      </c>
+      <c r="C12" s="8">
         <f>C9*0.1</f>
-        <v>4180.0</v>
-      </c>
-      <c r="D12" s="15"/>
-    </row>
-    <row r="13" spans="8:8" s="1" ht="21.0" customFormat="1" customHeight="1">
-      <c r="B13" s="10" t="s">
+        <v>4180</v>
+      </c>
+      <c r="D12" s="16"/>
+    </row>
+    <row r="13" s="2" customFormat="1" ht="21" customHeight="1" spans="2:8">
+      <c r="B13" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="8"/>
-      <c r="D13" s="1"/>
+      <c r="C13" s="11"/>
       <c r="E13"/>
       <c r="F13"/>
       <c r="G13"/>
       <c r="H13"/>
     </row>
-    <row r="14" spans="8:8" s="1" ht="29.0" customFormat="1" customHeight="1">
-      <c r="A14" s="11" t="s">
+    <row r="14" s="2" customFormat="1" ht="29" customHeight="1" spans="1:8">
+      <c r="A14" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="12" t="str">
+      <c r="B14" s="4" t="str">
         <f>"目前由9人瓜分人均"&amp;ROUND(C14/9,0)</f>
         <v>目前由9人瓜分人均591</v>
       </c>
-      <c r="C14" s="13">
+      <c r="C14" s="8">
         <f>C24*0.1</f>
-        <v>5320.0</v>
+        <v>5320</v>
       </c>
       <c r="E14"/>
       <c r="F14"/>
       <c r="G14"/>
       <c r="H14"/>
     </row>
-    <row r="15" spans="8:8" s="1" ht="29.0" customFormat="1" customHeight="1">
-      <c r="A15" s="14" t="s">
+    <row r="15" s="2" customFormat="1" ht="29" customHeight="1" spans="1:8">
+      <c r="A15" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="12" t="str">
-        <f>"目前由1人瓜分人均"&amp;ROUND(C15/1,0)</f>
-        <v>目前由1人瓜分人均5320</v>
-      </c>
-      <c r="C15" s="13">
+      <c r="B15" s="4" t="str">
+        <f>"目前由2人瓜分人均"&amp;ROUND(C15/2,0)</f>
+        <v>目前由2人瓜分人均2660</v>
+      </c>
+      <c r="C15" s="8">
         <f>C24*0.1</f>
-        <v>5320.0</v>
-      </c>
-      <c r="D15" s="15"/>
+        <v>5320</v>
+      </c>
+      <c r="D15" s="16"/>
       <c r="E15"/>
       <c r="F15"/>
       <c r="G15"/>
       <c r="H15"/>
     </row>
-    <row r="16" spans="8:8" ht="19.0" customHeight="1">
-      <c r="A16" s="11"/>
-      <c r="B16" s="16"/>
-      <c r="C16" s="13"/>
-    </row>
-    <row r="17" spans="8:8">
-      <c r="A17" s="17" t="s">
+    <row r="16" ht="19" customHeight="1" spans="1:3">
+      <c r="A16" s="14"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="8"/>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B17" s="18">
-        <v>43864.0</v>
-      </c>
-      <c r="C17" s="9">
-        <v>7300.0</v>
-      </c>
-    </row>
-    <row r="18" spans="8:8">
-      <c r="A18" s="17" t="s">
+      <c r="B17" s="6">
+        <v>43864</v>
+      </c>
+      <c r="C17" s="12">
+        <v>7300</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="B18" s="18">
-        <v>43865.0</v>
-      </c>
-      <c r="C18" s="9">
-        <v>7400.0</v>
-      </c>
-    </row>
-    <row r="19" spans="8:8">
-      <c r="A19" s="17" t="s">
+      <c r="B18" s="6">
+        <v>43865</v>
+      </c>
+      <c r="C18" s="12">
+        <v>7400</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B19" s="18">
-        <v>43866.0</v>
-      </c>
-      <c r="C19" s="9">
-        <v>7500.0</v>
-      </c>
-    </row>
-    <row r="20" spans="8:8">
-      <c r="A20" s="17" t="s">
+      <c r="B19" s="6">
+        <v>43866</v>
+      </c>
+      <c r="C19" s="12">
+        <v>7500</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B20" s="18">
-        <v>43867.0</v>
-      </c>
-      <c r="C20" s="9">
-        <v>7600.0</v>
-      </c>
-    </row>
-    <row r="21" spans="8:8">
-      <c r="A21" s="17" t="s">
+      <c r="B20" s="6">
+        <v>43867</v>
+      </c>
+      <c r="C20" s="12">
+        <v>7600</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="B21" s="18">
-        <v>43868.0</v>
-      </c>
-      <c r="C21" s="9">
-        <v>7700.0</v>
-      </c>
-    </row>
-    <row r="22" spans="8:8">
-      <c r="A22" s="17" t="s">
+      <c r="B21" s="6">
+        <v>43868</v>
+      </c>
+      <c r="C21" s="12">
+        <v>7700</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="B22" s="18">
-        <v>43869.0</v>
-      </c>
-      <c r="C22" s="9">
-        <v>7800.0</v>
-      </c>
-    </row>
-    <row r="23" spans="8:8">
-      <c r="A23" s="17" t="s">
+      <c r="B22" s="6">
+        <v>43869</v>
+      </c>
+      <c r="C22" s="12">
+        <v>7800</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="B23" s="18">
-        <v>43870.0</v>
-      </c>
-      <c r="C23" s="9">
-        <v>7900.0</v>
-      </c>
-    </row>
-    <row r="24" spans="8:8" ht="12.0">
-      <c r="A24" s="17"/>
-      <c r="C24" s="1">
+      <c r="B23" s="6">
+        <v>43870</v>
+      </c>
+      <c r="C23" s="12">
+        <v>7900</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="15"/>
+      <c r="C24" s="2">
         <f>SUM(C17:C23)</f>
-        <v>53200.0</v>
-      </c>
-    </row>
-    <row r="25" spans="8:8">
-      <c r="A25" s="17"/>
+        <v>53200</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" s="15"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1.0" bottom="1.0" header="0.5" footer="0.5"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="77">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" defaultColWidth="9"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" customWidth="1" width="8.25" style="1"/>
-    <col min="2" max="2" customWidth="1" width="10.703125" style="0"/>
-    <col min="3" max="3" customWidth="1" width="11.0" style="0"/>
-    <col min="4" max="4" customWidth="1" width="10.375" style="0"/>
+    <col min="1" max="1" width="8.25" style="2" customWidth="1"/>
+    <col min="2" max="2" width="10.7" customWidth="1"/>
+    <col min="3" max="3" width="11" customWidth="1"/>
+    <col min="4" max="4" width="10.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="8:8" s="19" ht="30.7" customFormat="1" customHeight="1">
-      <c r="A1" s="4" t="s">
+    <row r="1" s="1" customFormat="1" ht="30.7" customHeight="1" spans="1:4">
+      <c r="A1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="D1" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="8:8">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:4">
+      <c r="A2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="1">
-        <v>3.7355523E7</v>
-      </c>
-      <c r="D2" s="18"/>
-    </row>
-    <row r="3" spans="8:8">
-      <c r="A3" s="1" t="s">
+      <c r="C2" s="2">
+        <v>37355523</v>
+      </c>
+      <c r="D2" s="6"/>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="1">
-        <v>3.8385084E7</v>
-      </c>
-      <c r="D3" s="18"/>
-    </row>
-    <row r="4" spans="8:8">
-      <c r="A4" s="1" t="s">
+      <c r="C3" s="2">
+        <v>38385084</v>
+      </c>
+      <c r="D3" s="6"/>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="1">
-        <v>3.8849374E7</v>
-      </c>
-      <c r="D4" s="18"/>
-    </row>
-    <row r="5" spans="8:8">
-      <c r="A5" s="1" t="s">
+      <c r="C4" s="2">
+        <v>38849374</v>
+      </c>
+      <c r="D4" s="6"/>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="1">
-        <v>3.8039874E7</v>
-      </c>
-      <c r="D5" s="18"/>
-    </row>
-    <row r="6" spans="8:8">
-      <c r="A6" s="1" t="s">
+      <c r="C5" s="2">
+        <v>38039874</v>
+      </c>
+      <c r="D5" s="6"/>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="1">
-        <v>3.8845774E7</v>
-      </c>
-      <c r="D6" s="18"/>
-    </row>
-    <row r="7" spans="8:8">
-      <c r="A7" s="1" t="s">
+      <c r="C6" s="2">
+        <v>38845774</v>
+      </c>
+      <c r="D6" s="6"/>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="1">
-        <v>101878.0</v>
-      </c>
-      <c r="D7" s="18"/>
-    </row>
-    <row r="8" spans="8:8">
-      <c r="A8" s="1" t="s">
+      <c r="C7" s="2">
+        <v>101878</v>
+      </c>
+      <c r="D7" s="6"/>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="1">
-        <v>3.829636E7</v>
-      </c>
-      <c r="D8" s="18">
-        <v>43860.0</v>
-      </c>
-    </row>
-    <row r="9" spans="8:8">
-      <c r="A9" s="1" t="s">
+      <c r="C8" s="2">
+        <v>38296360</v>
+      </c>
+      <c r="D8" s="6">
+        <v>43860</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="1">
-        <v>3.8706694E7</v>
-      </c>
-      <c r="D9" s="18">
-        <v>43861.0</v>
-      </c>
-    </row>
-    <row r="10" spans="8:8">
-      <c r="A10" s="1" t="s">
+      <c r="C9" s="2">
+        <v>38706694</v>
+      </c>
+      <c r="D9" s="6">
+        <v>43861</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="1">
-        <v>3.8854167E7</v>
-      </c>
-      <c r="D10" s="18">
-        <v>43861.0</v>
-      </c>
-    </row>
-    <row r="11" spans="8:8">
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-    </row>
-    <row r="12" spans="8:8">
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-    </row>
-    <row r="13" spans="8:8">
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="18"/>
-    </row>
-    <row r="14" spans="8:8">
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-    </row>
-    <row r="15" spans="8:8">
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-    </row>
-    <row r="16" spans="8:8">
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-    </row>
-    <row r="17" spans="8:8">
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-    </row>
-    <row r="18" spans="8:8">
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-    </row>
-    <row r="19" spans="8:8">
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-    </row>
-    <row r="20" spans="8:8">
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-    </row>
-    <row r="21" spans="8:8">
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-    </row>
-    <row r="22" spans="8:8">
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-    </row>
-    <row r="23" spans="8:8">
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
+      <c r="C10" s="2">
+        <v>38854167</v>
+      </c>
+      <c r="D10" s="6">
+        <v>43861</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="2">
+        <v>70584</v>
+      </c>
+      <c r="D11" s="6">
+        <v>43861</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4">
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+    </row>
+    <row r="13" spans="2:4">
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="6"/>
+    </row>
+    <row r="14" spans="2:4">
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+    </row>
+    <row r="15" spans="2:4">
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+    </row>
+    <row r="16" spans="2:4">
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+    </row>
+    <row r="17" spans="2:4">
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+    </row>
+    <row r="18" spans="2:4">
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+    </row>
+    <row r="19" spans="2:4">
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+    </row>
+    <row r="20" spans="2:4">
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+    </row>
+    <row r="21" spans="2:4">
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+    </row>
+    <row r="22" spans="2:4">
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+    </row>
+    <row r="23" spans="2:4">
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1.0" bottom="1.0" header="0.5" footer="0.5"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/freebtc/BTC-dividend.xlsx
+++ b/freebtc/BTC-dividend.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="31">
   <si>
     <t>Week</t>
   </si>
@@ -105,6 +105,9 @@
   </si>
   <si>
     <t>周大大</t>
+  </si>
+  <si>
+    <t>Emily</t>
   </si>
 </sst>
 </file>
@@ -112,12 +115,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="176" formatCode="0.00000000_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="0_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0.00000000_ "/>
+    <numFmt numFmtId="177" formatCode="0_ "/>
   </numFmts>
   <fonts count="30">
     <font>
@@ -182,6 +185,125 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -198,136 +320,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -342,97 +345,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -457,72 +526,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -536,17 +539,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -556,21 +553,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -586,6 +568,36 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -611,25 +623,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -641,10 +644,10 @@
     <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -653,133 +656,133 @@
     <xf numFmtId="41" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="26" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1157,7 +1160,7 @@
   <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -1293,8 +1296,8 @@
         <v>14</v>
       </c>
       <c r="B12" s="4" t="str">
-        <f>"目前由2人瓜分人均"&amp;ROUND(C12/2,0)</f>
-        <v>目前由2人瓜分人均2090</v>
+        <f>"目前由3人瓜分人均"&amp;ROUND(C12/3,0)</f>
+        <v>目前由3人瓜分人均1393</v>
       </c>
       <c r="C12" s="8">
         <f>C9*0.1</f>
@@ -1334,8 +1337,8 @@
         <v>14</v>
       </c>
       <c r="B15" s="4" t="str">
-        <f>"目前由2人瓜分人均"&amp;ROUND(C15/2,0)</f>
-        <v>目前由2人瓜分人均2660</v>
+        <f>"目前由3人瓜分人均"&amp;ROUND(C15/3,0)</f>
+        <v>目前由3人瓜分人均1773</v>
       </c>
       <c r="C15" s="8">
         <f>C24*0.1</f>
@@ -1451,7 +1454,7 @@
   <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1604,10 +1607,19 @@
         <v>43861</v>
       </c>
     </row>
-    <row r="12" spans="2:4">
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
+    <row r="12" spans="1:4">
+      <c r="A12" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="2">
+        <v>38854951</v>
+      </c>
+      <c r="D12" s="6">
+        <v>43861</v>
+      </c>
     </row>
     <row r="13" spans="2:4">
       <c r="B13" s="2"/>
